--- a/Task_3/final_output.xlsx
+++ b/Task_3/final_output.xlsx
@@ -469,9 +469,7 @@
       <c r="B2" t="n">
         <v>717</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>40</v>
       </c>
@@ -488,9 +486,7 @@
       <c r="B3" t="n">
         <v>190.8333333333333</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>10</v>
       </c>
